--- a/Calculos.xlsx
+++ b/Calculos.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\Notas-seminario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29F3242-EA92-4907-BFAB-FD54B2EC57D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251FE45D-F1F9-4610-A736-5E5A6D769E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{37A698DF-6AAA-4E26-9347-BCF379BFF3B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Medidas Casa" sheetId="3" r:id="rId2"/>
+    <sheet name="Tabla de Cargas" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +37,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>Año</t>
   </si>
@@ -174,14 +213,157 @@
   </si>
   <si>
     <t>Precio de inversor</t>
+  </si>
+  <si>
+    <t>Consumo de electrodomesticos</t>
+  </si>
+  <si>
+    <t>Costos diarios</t>
+  </si>
+  <si>
+    <t>Costos mensuales</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Electrodomestico</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Potencia (Wh)</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Consumo (Wh/día)</t>
+  </si>
+  <si>
+    <t>Consumo (KWh/día)</t>
+  </si>
+  <si>
+    <t>Costo (COP)</t>
+  </si>
+  <si>
+    <t>Costo (USD)</t>
+  </si>
+  <si>
+    <t>Bombillos led</t>
+  </si>
+  <si>
+    <t>TV 40-50 pulg</t>
+  </si>
+  <si>
+    <t>Nevera</t>
+  </si>
+  <si>
+    <t>A.A. 12mil BTU</t>
+  </si>
+  <si>
+    <t>Cargar celular</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>Pc portatil</t>
+  </si>
+  <si>
+    <t>Plancha de ropa</t>
+  </si>
+  <si>
+    <t>Lavadora</t>
+  </si>
+  <si>
+    <t>Freidora de aire</t>
+  </si>
+  <si>
+    <t>Ventilador</t>
+  </si>
+  <si>
+    <t>inversor seleccionado</t>
+  </si>
+  <si>
+    <t>Bloque habitaciones</t>
+  </si>
+  <si>
+    <t>Bloque sala-comedor</t>
+  </si>
+  <si>
+    <t>Area (m2)</t>
+  </si>
+  <si>
+    <t>Largo (m)</t>
+  </si>
+  <si>
+    <t>Ancho (m)</t>
+  </si>
+  <si>
+    <t>Volumen (m3)</t>
+  </si>
+  <si>
+    <t>Alto (m)</t>
+  </si>
+  <si>
+    <t>ALLSKY_SFC_SW_DWN (kW-hr/m2/dia)</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>*Datos de https://power.larc.nasa.gov/</t>
+  </si>
+  <si>
+    <t>Minimo</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
+    <t>Hora solar pico promedio (HSPprom)</t>
+  </si>
+  <si>
+    <t>Tension de las baterias (V)</t>
+  </si>
+  <si>
+    <t>Tension de trabajo de las baterias (V)</t>
+  </si>
+  <si>
+    <t>Descarga maxima diaria Cnd (Wh)</t>
+  </si>
+  <si>
+    <t>Descarga maxima estacional Cne (Wh)</t>
+  </si>
+  <si>
+    <t>Descarga maxima estaciona Cne (Ah)</t>
+  </si>
+  <si>
+    <t>Descarga maxima diaria Cnd (Ah)</t>
+  </si>
+  <si>
+    <t>Carga nominal de baterias (Ah)</t>
+  </si>
+  <si>
+    <t>Numero de baterias</t>
+  </si>
+  <si>
+    <t>Baterias en serie</t>
+  </si>
+  <si>
+    <t>Baterias en paralelo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$$-240A]\ #,##0;[Red]\-[$$-240A]\ #,##0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$$-240A]\ #,##0;[Red]\-[$$-240A]\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -222,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +415,24 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -371,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,13 +585,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -420,10 +620,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -439,18 +636,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="23">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -516,24 +752,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -549,6 +767,178 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -607,6 +997,36 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -647,36 +1067,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -690,27 +1080,375 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>es-ES</v>
+    <v>avyma2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Con tecnología de Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>USD/COP</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>-26.85</v>
+    <v>-6.5690000000000002E-3</v>
+    <v>4087.55</v>
+    <v>USD</v>
+    <v>45170.871053240742</v>
+    <v>5118.38</v>
+    <v>3859.07</v>
+    <v>COP</v>
+    <v>US Dollar/Colombian Peso FX Spot Rate</v>
+    <v>4060.7</v>
+    <v>USDCOP</v>
+    <v>Par de divisa</v>
+    <v>USD/COP</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_CanonicalPropertyNames" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Cambio"/>
+    <k n="Cambio (%)"/>
+    <k n="Cierre anterior"/>
+    <k n="De la moneda" t="s"/>
+    <k n="Hora de la última operación"/>
+    <k n="Máximo en 52 semanas"/>
+    <k n="Mínimo en 52 semanas"/>
+    <k n="Moneda" t="s"/>
+    <k n="Nombre" t="s"/>
+    <k n="Precio"/>
+    <k n="Símbolo bursátil" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="UniqueName" t="s"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="25">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">_CanonicalPropertyNames</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Nombre</v>
+      <v t="s">Precio</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Hora de la última operación</v>
+      <v t="s">Símbolo bursátil</v>
+      <v t="s">Cambio</v>
+      <v t="s">Cambio (%)</v>
+      <v t="s">Moneda</v>
+      <v t="s">De la moneda</v>
+      <v t="s">Cierre anterior</v>
+      <v t="s">Máximo en 52 semanas</v>
+      <v t="s">Mínimo en 52 semanas</v>
+      <v t="s">Tipo de instrumento</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="6">
+    <spb s="0">
+      <v>Change</v>
+      <v>Currency</v>
+      <v>Name</v>
+      <v>Price</v>
+      <v>Change (%)</v>
+      <v>UniqueName</v>
+      <v>From currency</v>
+      <v>%ProviderInfo</v>
+      <v>Previous close</v>
+      <v>Ticker symbol</v>
+      <v>Instrument type</v>
+      <v>52 week high</v>
+      <v>52 week low</v>
+      <v>Last trade time</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>Name</v>
+    </spb>
+    <spb s="2">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="3">
+      <v>2</v>
+      <v>2</v>
+    </spb>
+    <spb s="4">
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="5">
+      <v>GMT</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
+  <s>
+    <k n="Cambio" t="s"/>
+    <k n="Moneda" t="s"/>
+    <k n="Nombre" t="s"/>
+    <k n="Precio" t="s"/>
+    <k n="Cambio (%)" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="De la moneda" t="s"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="Cierre anterior" t="s"/>
+    <k n="Símbolo bursátil" t="s"/>
+    <k n="Tipo de instrumento" t="s"/>
+    <k n="Máximo en 52 semanas" t="s"/>
+    <k n="Mínimo en 52 semanas" t="s"/>
+    <k n="Hora de la última operación" t="s"/>
+  </s>
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="Cambio" t="i"/>
+    <k n="Nombre" t="i"/>
+    <k n="Precio" t="i"/>
+    <k n="Cambio (%)" t="i"/>
+    <k n="Cierre anterior" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Máximo en 52 semanas" t="i"/>
+    <k n="Mínimo en 52 semanas" t="i"/>
+    <k n="Hora de la última operación" t="i"/>
+  </s>
+  <s>
+    <k n="Hora de la última operación" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="4">
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="d/mm/yyyy\ h:mm"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0">
+      <rpv i="0">_-[$$-es-CO] * #,##0.00_-;-[$$-es-CO] * #,##0.00_-;_-[$$-es-CO] * "-"??_-;_-@_-</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="1"/>
+    <rSty dxfid="2">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F7E6F9D2-6606-41B8-93FA-D4E28586AD7A}" name="Tabla1" displayName="Tabla1" ref="B2:D21" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F7E6F9D2-6606-41B8-93FA-D4E28586AD7A}" name="Tabla1" displayName="Tabla1" ref="B2:D21" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="B2:D21" xr:uid="{F7E6F9D2-6606-41B8-93FA-D4E28586AD7A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DBA41838-9A44-4471-8146-C601B75A671A}" name="Año" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{86D75A9C-B00B-4D96-B397-2A0D3DA51DC4}" name="Mes" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{26771341-D94F-4E5C-9566-36BA6B16ED48}" name="Consumo (KWh/mes)" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{DBA41838-9A44-4471-8146-C601B75A671A}" name="Año" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{86D75A9C-B00B-4D96-B397-2A0D3DA51DC4}" name="Mes" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{26771341-D94F-4E5C-9566-36BA6B16ED48}" name="Consumo (KWh/mes)" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4EED759-663E-4786-8272-814508BF9342}" name="Tabla2" displayName="Tabla2" ref="I2:L14" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="I2:L14" xr:uid="{C4EED759-663E-4786-8272-814508BF9342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4EED759-663E-4786-8272-814508BF9342}" name="Tabla2" displayName="Tabla2" ref="I2:L17" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="I2:L17" xr:uid="{C4EED759-663E-4786-8272-814508BF9342}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{159DAA46-99CC-497C-8AE6-BB956173B3C2}" name="Mes" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{A19D46D1-E76C-41DE-8838-54469881E6E0}" name="Dias" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{40B89D3D-46D4-48FA-ACCC-D609C13556D2}" name="KWh/mes" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{666390FE-05D3-47B0-AEFD-C40688174683}" name="KWh/dia" dataDxfId="0">
       <calculatedColumnFormula>Tabla2[[#This Row],[KWh/mes]]/Tabla2[[#This Row],[Dias]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9393812B-9C15-4736-808D-0DABC68A3549}" name="Tabla7" displayName="Tabla7" ref="N2:O15" totalsRowCount="1" headerRowDxfId="10" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+  <autoFilter ref="N2:O14" xr:uid="{9393812B-9C15-4736-808D-0DABC68A3549}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6C3C2CF3-D0AA-4C1D-861C-1A797D0BCEC1}" name="Mes" totalsRowLabel="Promedio" dataDxfId="12" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1432C9D4-5660-4299-AF63-4DC0C664CD48}" name="ALLSKY_SFC_SW_DWN (kW-hr/m2/dia)" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="8">
+      <totalsRowFormula>AVERAGE(Tabla7[ALLSKY_SFC_SW_DWN (kW-hr/m2/dia)])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1014,25 +1752,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA975E7-ED5E-461F-80C6-0A8CC986DE1E}">
-  <dimension ref="B2:L37"/>
+  <dimension ref="B2:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.77734375" customWidth="1"/>
     <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.77734375" customWidth="1"/>
     <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.77734375" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1789,7 @@
       <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="22">
         <f>AVERAGE(Tabla1[Consumo (KWh/mes)])</f>
         <v>233.89473684210526</v>
       </c>
@@ -1061,8 +1805,14 @@
       <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>2022</v>
       </c>
@@ -1092,8 +1842,14 @@
         <f>Tabla2[[#This Row],[KWh/mes]]/Tabla2[[#This Row],[Dias]]</f>
         <v>5.9174193548387093</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N3" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="38">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2022</v>
       </c>
@@ -1106,7 +1862,8 @@
       <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
+        <f>O16</f>
         <v>3.77</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -1122,8 +1879,14 @@
         <f>Tabla2[[#This Row],[KWh/mes]]/Tabla2[[#This Row],[Dias]]</f>
         <v>5.8682758620689661</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="38">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2022</v>
       </c>
@@ -1137,6 +1900,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="1">
+        <f>O17</f>
         <v>4.72</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -1152,8 +1916,14 @@
         <f>Tabla2[[#This Row],[KWh/mes]]/Tabla2[[#This Row],[Dias]]</f>
         <v>5.5290322580645164</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="38">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2022</v>
       </c>
@@ -1166,7 +1936,7 @@
       <c r="F6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <f>G3*1000*1.2/30</f>
         <v>11560</v>
       </c>
@@ -1183,8 +1953,14 @@
         <f>Tabla2[[#This Row],[KWh/mes]]/Tabla2[[#This Row],[Dias]]</f>
         <v>4.9586666666666668</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="38">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>2022</v>
       </c>
@@ -1197,7 +1973,7 @@
       <c r="F7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <f>G2*1000*1.2/30</f>
         <v>9355.78947368421</v>
       </c>
@@ -1214,8 +1990,14 @@
         <f>Tabla2[[#This Row],[KWh/mes]]/Tabla2[[#This Row],[Dias]]</f>
         <v>4.096129032258065</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="38">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>2022</v>
       </c>
@@ -1225,12 +2007,12 @@
       <c r="D8" s="16">
         <v>288</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="23">
-        <f>G6/(G4*0.8)</f>
-        <v>3832.8912466843503</v>
+      <c r="F8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="22">
+        <f>Tabla7[[#Totals],[ALLSKY_SFC_SW_DWN (kW-hr/m2/dia)]]</f>
+        <v>4.3008333333333333</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>13</v>
@@ -1245,8 +2027,14 @@
         <f>Tabla2[[#This Row],[KWh/mes]]/Tabla2[[#This Row],[Dias]]</f>
         <v>4.3736666666666668</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N8" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="38">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>2022</v>
       </c>
@@ -1256,12 +2044,12 @@
       <c r="D9" s="16">
         <v>180</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="25">
-        <f>ROUNDUP((G8/G14),0)</f>
-        <v>9</v>
+      <c r="F9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="22">
+        <f>G6/(G8*0.8)</f>
+        <v>3359.8139895369113</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>14</v>
@@ -1276,8 +2064,14 @@
         <f>Tabla2[[#This Row],[KWh/mes]]/Tabla2[[#This Row],[Dias]]</f>
         <v>4.5154838709677412</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N9" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>2022</v>
       </c>
@@ -1287,12 +2081,12 @@
       <c r="D10" s="16">
         <v>198</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1">
-        <f>G9*G14</f>
-        <v>4095</v>
+      <c r="F10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="24">
+        <f>ROUNDUP((G9/G15),0)</f>
+        <v>8</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>3</v>
@@ -1307,8 +2101,14 @@
         <f>Tabla2[[#This Row],[KWh/mes]]/Tabla2[[#This Row],[Dias]]</f>
         <v>5.0438709677419356</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="38">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>2022</v>
       </c>
@@ -1317,6 +2117,13 @@
       </c>
       <c r="D11" s="16">
         <v>242</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1">
+        <f>G10*G15</f>
+        <v>3640</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>4</v>
@@ -1331,8 +2138,14 @@
         <f>Tabla2[[#This Row],[KWh/mes]]/Tabla2[[#This Row],[Dias]]</f>
         <v>5.5446666666666671</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N11" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="38">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>2022</v>
       </c>
@@ -1341,12 +2154,6 @@
       </c>
       <c r="D12" s="16">
         <v>200</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="23">
-        <v>10.88</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>5</v>
@@ -1361,8 +2168,14 @@
         <f>Tabla2[[#This Row],[KWh/mes]]/Tabla2[[#This Row],[Dias]]</f>
         <v>5.1238709677419356</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N12" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="38">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>2022</v>
       </c>
@@ -1372,11 +2185,11 @@
       <c r="D13" s="16">
         <v>195</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="23">
-        <v>41.82</v>
+      <c r="F13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="22">
+        <v>10.88</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>6</v>
@@ -1391,8 +2204,14 @@
         <f>Tabla2[[#This Row],[KWh/mes]]/Tabla2[[#This Row],[Dias]]</f>
         <v>5.073666666666667</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N13" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="38">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>2023</v>
       </c>
@@ -1402,11 +2221,11 @@
       <c r="D14" s="16">
         <v>256</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="25">
-        <v>455</v>
+      <c r="F14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="22">
+        <v>41.82</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>7</v>
@@ -1421,8 +2240,14 @@
         <f>Tabla2[[#This Row],[KWh/mes]]/Tabla2[[#This Row],[Dias]]</f>
         <v>5.2474193548387094</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N14" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="41">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>2023</v>
       </c>
@@ -1432,14 +2257,30 @@
       <c r="D15" s="16">
         <v>164</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="23">
-        <v>11.41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="24">
+        <v>455</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="46">
+        <f>AVERAGE(L3:L14)</f>
+        <v>5.1076806945989377</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="41">
+        <f>AVERAGE(Tabla7[ALLSKY_SFC_SW_DWN (kW-hr/m2/dia)])</f>
+        <v>4.3008333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>2023</v>
       </c>
@@ -1449,20 +2290,30 @@
       <c r="D16" s="16">
         <v>175</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="23">
-        <v>49.85</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="22">
+        <v>11.41</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46">
+        <f>MIN(L3:L14)</f>
+        <v>4.096129032258065</v>
+      </c>
+      <c r="N16" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" s="43">
+        <f>MIN(Tabla7[ALLSKY_SFC_SW_DWN (kW-hr/m2/dia)])</f>
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>2023</v>
       </c>
@@ -1472,14 +2323,30 @@
       <c r="D17" s="16">
         <v>195</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="24">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="22">
+        <v>49.85</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="46">
+        <f>MAX(L3:L14)</f>
+        <v>5.9174193548387093</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="43">
+        <f>MAX(Tabla7[ALLSKY_SFC_SW_DWN (kW-hr/m2/dia)])</f>
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>2023</v>
       </c>
@@ -1489,8 +2356,14 @@
       <c r="D18" s="16">
         <v>207</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>2023</v>
       </c>
@@ -1500,11 +2373,18 @@
       <c r="D19" s="16">
         <v>272</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I19" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="N19" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O19" s="32"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>2023</v>
       </c>
@@ -1514,15 +2394,11 @@
       <c r="D20" s="16">
         <v>263</v>
       </c>
-      <c r="F20" s="27">
-        <v>887601</v>
-      </c>
-      <c r="K20">
-        <f>G9*24</f>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F20" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>2023</v>
       </c>
@@ -1532,118 +2408,900 @@
       <c r="D21" s="17">
         <v>289</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F22" s="10" t="s">
+      <c r="F21" s="26">
+        <v>887601</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F23" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F23" s="27">
-        <f>F20*G9</f>
-        <v>7988409</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F25" s="21" t="s">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F24" s="26">
+        <f>F21*G10</f>
+        <v>7100808</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G26" s="24">
         <v>2122</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F26" s="21" t="s">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F27" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G27" s="24">
         <v>1054</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F27" s="21" t="s">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G28" s="24">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F28" s="21" t="s">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G29" s="24">
         <v>32.5</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F29" s="21" t="s">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F30" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="29">
-        <f>G25*G26/1000000</f>
+      <c r="G30" s="22">
+        <f>G26*G27/1000000</f>
         <v>2.2365879999999998</v>
       </c>
-      <c r="L29" s="30">
-        <f>F37+F23</f>
-        <v>10658740</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F30" s="21" t="s">
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F31" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="29">
-        <f>G29*G9</f>
-        <v>20.129292</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F31" s="21" t="s">
+      <c r="G31" s="22">
+        <f>G30*G10</f>
+        <v>17.892703999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F32" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="29">
-        <f>G28*G9</f>
-        <v>292.5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F32" s="21" t="s">
+      <c r="G32" s="22">
+        <f>G29*G10</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F33" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="29">
-        <f>G31/G30</f>
+      <c r="G33" s="22">
+        <f>G32/G31</f>
         <v>14.531062493405134</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F34" s="26" t="s">
+    <row r="35" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F35" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F36" s="10" t="s">
+    <row r="37" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F37" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F37" s="27">
+    <row r="38" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F38" s="26">
         <v>2670331</v>
       </c>
     </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F40" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F42" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="47">
+        <f>IF(G6&lt;1500, IF(G6&lt;1000, 12, IF(G6&lt;=5000, 24, 120)), IF(G6&lt;=5000, 48, 120))</f>
+        <v>120</v>
+      </c>
+      <c r="I42" s="48">
+        <f>MAX(G43,G45)</f>
+        <v>57800</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F43" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="47">
+        <f>G6/(0.2*1)</f>
+        <v>57800</v>
+      </c>
+      <c r="I43" s="48">
+        <f>MAX(G44,G46)</f>
+        <v>481.66666666666669</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F44" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="47">
+        <f>G43/G42</f>
+        <v>481.66666666666669</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F45" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="47">
+        <f>(G6*1)/(0.7*1)</f>
+        <v>16514.285714285714</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F46" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" s="47">
+        <f>G45/G42</f>
+        <v>137.61904761904762</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F47" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F48" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="47">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="47">
+        <f>ROUNDUP((G43/(G47*G48)),0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F50" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" s="47">
+        <f>G42/G47</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F51" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" s="47">
+        <f>G44/G48</f>
+        <v>1.6055555555555556</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I16:L16"/>
+  <mergeCells count="2">
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F34" r:id="rId1" xr:uid="{DB6F814D-E714-4FFA-B519-4D83AA2A7E0A}"/>
+    <hyperlink ref="F35" r:id="rId1" xr:uid="{DB6F814D-E714-4FFA-B519-4D83AA2A7E0A}"/>
+    <hyperlink ref="F40" r:id="rId2" xr:uid="{0327A25E-1C61-490A-AF37-3EA229D7C917}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <tableParts count="2">
-    <tablePart r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <tableParts count="3">
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA77729-9C99-4277-A675-B38AE29B2DF7}">
+  <dimension ref="B2:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="1">
+        <f>C3*D3</f>
+        <v>18</v>
+      </c>
+      <c r="G3" s="1">
+        <f>F3*E3</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <f>C4*D4</f>
+        <v>36</v>
+      </c>
+      <c r="G4" s="1">
+        <f>F4*E4</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <f>SUM(F3:F4)</f>
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27BB990-7E37-48AE-BA90-A65DE4C3485E}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="35"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="M2" s="29" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N2" s="30" cm="1">
+        <f t="array" ref="N2">_FV(M2,"Precio")</f>
+        <v>4060.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>1</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="29">
+        <v>16</v>
+      </c>
+      <c r="D4" s="29">
+        <v>20</v>
+      </c>
+      <c r="E4" s="29">
+        <v>2</v>
+      </c>
+      <c r="F4" s="27">
+        <f>D4*E4</f>
+        <v>40</v>
+      </c>
+      <c r="G4" s="27">
+        <f>F4/1000</f>
+        <v>0.04</v>
+      </c>
+      <c r="H4" s="31">
+        <f>893.39*G4</f>
+        <v>35.735599999999998</v>
+      </c>
+      <c r="I4" s="30">
+        <f>H4/N$2</f>
+        <v>8.8003546186618074E-3</v>
+      </c>
+      <c r="J4" s="31">
+        <f>H4*30</f>
+        <v>1072.068</v>
+      </c>
+      <c r="K4" s="30">
+        <f>I4*30</f>
+        <v>0.26401063855985424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2</v>
+      </c>
+      <c r="D5" s="29">
+        <v>150</v>
+      </c>
+      <c r="E5" s="29">
+        <v>6</v>
+      </c>
+      <c r="F5" s="27">
+        <f t="shared" ref="F5:F14" si="0">D5*E5</f>
+        <v>900</v>
+      </c>
+      <c r="G5" s="27">
+        <f t="shared" ref="G5:G14" si="1">F5/1000</f>
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="31">
+        <f t="shared" ref="H5:H15" si="2">893.39*G5</f>
+        <v>804.05100000000004</v>
+      </c>
+      <c r="I5" s="30">
+        <f t="shared" ref="I5:I15" si="3">H5/N$2</f>
+        <v>0.19800797891989069</v>
+      </c>
+      <c r="J5" s="31">
+        <f t="shared" ref="J5:K15" si="4">H5*30</f>
+        <v>24121.530000000002</v>
+      </c>
+      <c r="K5" s="30">
+        <f t="shared" si="4"/>
+        <v>5.9402393675967211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>3</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29">
+        <v>66</v>
+      </c>
+      <c r="E6" s="29">
+        <v>24</v>
+      </c>
+      <c r="F6" s="27">
+        <f t="shared" si="0"/>
+        <v>1584</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" si="1"/>
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="H6" s="31">
+        <f t="shared" si="2"/>
+        <v>1415.12976</v>
+      </c>
+      <c r="I6" s="30">
+        <f t="shared" si="3"/>
+        <v>0.34849404289900759</v>
+      </c>
+      <c r="J6" s="31">
+        <f t="shared" si="4"/>
+        <v>42453.892800000001</v>
+      </c>
+      <c r="K6" s="30">
+        <f t="shared" si="4"/>
+        <v>10.454821286970228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
+        <v>4</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="29">
+        <v>3</v>
+      </c>
+      <c r="F7" s="27">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="31">
+        <f t="shared" si="2"/>
+        <v>4020.2550000000001</v>
+      </c>
+      <c r="I7" s="30">
+        <f t="shared" si="3"/>
+        <v>0.99003989459945341</v>
+      </c>
+      <c r="J7" s="31">
+        <f t="shared" si="4"/>
+        <v>120607.65000000001</v>
+      </c>
+      <c r="K7" s="30">
+        <f t="shared" si="4"/>
+        <v>29.701196837983602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
+        <v>5</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="29">
+        <v>2</v>
+      </c>
+      <c r="D8" s="29">
+        <v>20</v>
+      </c>
+      <c r="E8" s="29">
+        <v>2</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G8" s="27">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="H8" s="31">
+        <f t="shared" si="2"/>
+        <v>35.735599999999998</v>
+      </c>
+      <c r="I8" s="30">
+        <f t="shared" si="3"/>
+        <v>8.8003546186618074E-3</v>
+      </c>
+      <c r="J8" s="31">
+        <f t="shared" si="4"/>
+        <v>1072.068</v>
+      </c>
+      <c r="K8" s="30">
+        <f t="shared" si="4"/>
+        <v>0.26401063855985424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>6</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="29">
+        <v>3</v>
+      </c>
+      <c r="D9" s="29">
+        <v>15</v>
+      </c>
+      <c r="E9" s="29">
+        <v>24</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="H9" s="31">
+        <f t="shared" si="2"/>
+        <v>321.62039999999996</v>
+      </c>
+      <c r="I9" s="30">
+        <f t="shared" si="3"/>
+        <v>7.9203191567956258E-2</v>
+      </c>
+      <c r="J9" s="31">
+        <f t="shared" si="4"/>
+        <v>9648.6119999999992</v>
+      </c>
+      <c r="K9" s="30">
+        <f t="shared" si="4"/>
+        <v>2.3760957470386876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>7</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="29">
+        <v>2</v>
+      </c>
+      <c r="D10" s="29">
+        <v>75</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H10" s="31">
+        <f t="shared" si="2"/>
+        <v>67.004249999999999</v>
+      </c>
+      <c r="I10" s="30">
+        <f t="shared" si="3"/>
+        <v>1.650066490999089E-2</v>
+      </c>
+      <c r="J10" s="31">
+        <f t="shared" si="4"/>
+        <v>2010.1275000000001</v>
+      </c>
+      <c r="K10" s="30">
+        <f t="shared" si="4"/>
+        <v>0.4950199472997267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>8</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>9</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29">
+        <v>500</v>
+      </c>
+      <c r="E12" s="29">
+        <f>4/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F12" s="27">
+        <f t="shared" si="0"/>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="G12" s="27">
+        <f t="shared" si="1"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H12" s="31">
+        <f t="shared" si="2"/>
+        <v>255.25428571428569</v>
+      </c>
+      <c r="I12" s="30">
+        <f t="shared" si="3"/>
+        <v>6.2859675847584326E-2</v>
+      </c>
+      <c r="J12" s="31">
+        <f t="shared" si="4"/>
+        <v>7657.6285714285705</v>
+      </c>
+      <c r="K12" s="30">
+        <f t="shared" si="4"/>
+        <v>1.8857902754275297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
+        <v>10</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1500</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
+        <v>11</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1</v>
+      </c>
+      <c r="D14" s="29">
+        <v>100</v>
+      </c>
+      <c r="E14" s="29">
+        <v>13</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="G14" s="27">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H14" s="31">
+        <f t="shared" si="2"/>
+        <v>1161.4069999999999</v>
+      </c>
+      <c r="I14" s="30">
+        <f t="shared" si="3"/>
+        <v>0.28601152510650873</v>
+      </c>
+      <c r="J14" s="31">
+        <f t="shared" si="4"/>
+        <v>34842.21</v>
+      </c>
+      <c r="K14" s="30">
+        <f t="shared" si="4"/>
+        <v>8.580345753195262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F15" s="27">
+        <f>SUM(F4:F14)</f>
+        <v>9084.7142857142862</v>
+      </c>
+      <c r="G15" s="27">
+        <f>SUM(G4:G14)</f>
+        <v>9.084714285714286</v>
+      </c>
+      <c r="H15" s="31">
+        <f t="shared" si="2"/>
+        <v>8116.1928957142854</v>
+      </c>
+      <c r="I15" s="30">
+        <f t="shared" si="3"/>
+        <v>1.9987176830877154</v>
+      </c>
+      <c r="J15" s="31">
+        <f>SUM(J4:J14)</f>
+        <v>243485.78687142854</v>
+      </c>
+      <c r="K15" s="30">
+        <f t="shared" si="4"/>
+        <v>59.961530492631461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J16" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="J1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>